--- a/ACTIVE/Updated AZU-SQL-03/Updated AZU-SQL-03.xlsx
+++ b/ACTIVE/Updated AZU-SQL-03/Updated AZU-SQL-03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkaja\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rglazebrook\source\repos\Application Support\ACTIVE\Updated AZU-SQL-03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4DFADF-F62E-405D-BAE0-5392BC9558E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE82088D-DB7E-4BBF-8DCE-2FD012D16F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F6CE2D3-649C-49E5-B208-C452727EAA95}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7F6CE2D3-649C-49E5-B208-C452727EAA95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="135">
   <si>
     <t>JOB ID</t>
   </si>
@@ -432,6 +430,18 @@
   </si>
   <si>
     <t>Occurs every day at 11:00:00 PM. Schedule will be used starting on 10/4/2022.</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Archive</t>
+  </si>
+  <si>
+    <t>Dee to Review</t>
+  </si>
+  <si>
+    <t>In Wellmaster Data Stager folder</t>
   </si>
 </sst>
 </file>
@@ -461,12 +471,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -481,11 +497,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -800,34 +817,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F543319-96AF-4106-B326-BD022D0C425F}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" customWidth="1"/>
-    <col min="6" max="6" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.81640625" customWidth="1"/>
-    <col min="9" max="9" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34" customWidth="1"/>
-    <col min="14" max="14" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.77734375" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="7.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="7.21875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="26.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="10.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="30.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="21.33203125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="14.21875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="34" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="12.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>95</v>
       </c>
@@ -879,8 +896,11 @@
       <c r="Q1" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R1" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -920,8 +940,11 @@
       <c r="Q2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -961,8 +984,11 @@
       <c r="Q3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>99</v>
       </c>
@@ -1002,8 +1028,11 @@
       <c r="Q4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>99</v>
       </c>
@@ -1043,8 +1072,11 @@
       <c r="Q5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>99</v>
       </c>
@@ -1084,8 +1116,11 @@
       <c r="Q6" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>99</v>
       </c>
@@ -1132,7 +1167,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>99</v>
       </c>
@@ -1179,7 +1214,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -1225,8 +1260,11 @@
       <c r="Q9" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>99</v>
       </c>
@@ -1273,7 +1311,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>99</v>
       </c>
@@ -1320,7 +1358,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -1373,7 +1411,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>99</v>
       </c>
@@ -1426,7 +1464,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>99</v>
       </c>
@@ -1473,7 +1511,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>99</v>
       </c>
@@ -1513,8 +1551,11 @@
       <c r="Q15" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>99</v>
       </c>
@@ -1555,7 +1596,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -1596,7 +1637,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>99</v>
       </c>
@@ -1643,7 +1684,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>99</v>
       </c>
@@ -1690,7 +1731,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>99</v>
       </c>
@@ -1737,7 +1778,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -1784,7 +1825,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>99</v>
       </c>
@@ -1830,8 +1871,11 @@
       <c r="Q22" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>99</v>
       </c>
@@ -1883,8 +1927,11 @@
       <c r="Q23" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>99</v>
       </c>
@@ -1936,8 +1983,11 @@
       <c r="Q24" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>99</v>
       </c>
@@ -1989,8 +2039,11 @@
       <c r="Q25" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>99</v>
       </c>
@@ -2042,8 +2095,11 @@
       <c r="Q26" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -2094,6 +2150,9 @@
       </c>
       <c r="Q27" t="s">
         <v>109</v>
+      </c>
+      <c r="R27" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
